--- a/natmiOut/OldD2/LR-pairs_lrc2p/Edil3-Itgb3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Edil3-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.116862776310509</v>
+        <v>0.118664</v>
       </c>
       <c r="H2">
-        <v>0.116862776310509</v>
+        <v>0.237328</v>
       </c>
       <c r="I2">
-        <v>0.05287676202463529</v>
+        <v>0.02903960483388136</v>
       </c>
       <c r="J2">
-        <v>0.05287676202463529</v>
+        <v>0.02579972146545566</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N2">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O2">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P2">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q2">
-        <v>0.5749823815585258</v>
+        <v>0.6587015500519999</v>
       </c>
       <c r="R2">
-        <v>0.5749823815585258</v>
+        <v>2.634806200208</v>
       </c>
       <c r="S2">
-        <v>0.02351031922467938</v>
+        <v>0.01332313444633138</v>
       </c>
       <c r="T2">
-        <v>0.02351031922467938</v>
+        <v>0.009504924648527485</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.116862776310509</v>
+        <v>0.118664</v>
       </c>
       <c r="H3">
-        <v>0.116862776310509</v>
+        <v>0.237328</v>
       </c>
       <c r="I3">
-        <v>0.05287676202463529</v>
+        <v>0.02903960483388136</v>
       </c>
       <c r="J3">
-        <v>0.05287676202463529</v>
+        <v>0.02579972146545566</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N3">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O3">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P3">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q3">
-        <v>0.1470948428020396</v>
+        <v>0.157491691448</v>
       </c>
       <c r="R3">
-        <v>0.1470948428020396</v>
+        <v>0.9449501486879999</v>
       </c>
       <c r="S3">
-        <v>0.006014526395063076</v>
+        <v>0.003185483591432563</v>
       </c>
       <c r="T3">
-        <v>0.006014526395063076</v>
+        <v>0.003408857911137919</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.116862776310509</v>
+        <v>0.118664</v>
       </c>
       <c r="H4">
-        <v>0.116862776310509</v>
+        <v>0.237328</v>
       </c>
       <c r="I4">
-        <v>0.05287676202463529</v>
+        <v>0.02903960483388136</v>
       </c>
       <c r="J4">
-        <v>0.05287676202463529</v>
+        <v>0.02579972146545566</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N4">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O4">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P4">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q4">
-        <v>0.02867814060447191</v>
+        <v>0.029699700576</v>
       </c>
       <c r="R4">
-        <v>0.02867814060447191</v>
+        <v>0.178198203456</v>
       </c>
       <c r="S4">
-        <v>0.00117261373914419</v>
+        <v>0.0006007168250303893</v>
       </c>
       <c r="T4">
-        <v>0.00117261373914419</v>
+        <v>0.0006428406370907048</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.116862776310509</v>
+        <v>0.118664</v>
       </c>
       <c r="H5">
-        <v>0.116862776310509</v>
+        <v>0.237328</v>
       </c>
       <c r="I5">
-        <v>0.05287676202463529</v>
+        <v>0.02903960483388136</v>
       </c>
       <c r="J5">
-        <v>0.05287676202463529</v>
+        <v>0.02579972146545566</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N5">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O5">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P5">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q5">
-        <v>0.04075310806880824</v>
+        <v>0.04236542128</v>
       </c>
       <c r="R5">
-        <v>0.04075310806880824</v>
+        <v>0.25419252768</v>
       </c>
       <c r="S5">
-        <v>0.001666344240841777</v>
+        <v>0.0008568982470807148</v>
       </c>
       <c r="T5">
-        <v>0.001666344240841777</v>
+        <v>0.0009169861607378956</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.116862776310509</v>
+        <v>0.118664</v>
       </c>
       <c r="H6">
-        <v>0.116862776310509</v>
+        <v>0.237328</v>
       </c>
       <c r="I6">
-        <v>0.05287676202463529</v>
+        <v>0.02903960483388136</v>
       </c>
       <c r="J6">
-        <v>0.05287676202463529</v>
+        <v>0.02579972146545566</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N6">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O6">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P6">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q6">
-        <v>0.4312577950764261</v>
+        <v>0.4748790092106667</v>
       </c>
       <c r="R6">
-        <v>0.4312577950764261</v>
+        <v>2.849274055264</v>
       </c>
       <c r="S6">
-        <v>0.01763359844678323</v>
+        <v>0.009605073625460401</v>
       </c>
       <c r="T6">
-        <v>0.01763359844678323</v>
+        <v>0.01027860614422067</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.116862776310509</v>
+        <v>0.118664</v>
       </c>
       <c r="H7">
-        <v>0.116862776310509</v>
+        <v>0.237328</v>
       </c>
       <c r="I7">
-        <v>0.05287676202463529</v>
+        <v>0.02903960483388136</v>
       </c>
       <c r="J7">
-        <v>0.05287676202463529</v>
+        <v>0.02579972146545566</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N7">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O7">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P7">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q7">
-        <v>0.0704193440235355</v>
+        <v>0.07259329532</v>
       </c>
       <c r="R7">
-        <v>0.0704193440235355</v>
+        <v>0.29037318128</v>
       </c>
       <c r="S7">
-        <v>0.002879359978123644</v>
+        <v>0.001468298098545915</v>
       </c>
       <c r="T7">
-        <v>0.002879359978123644</v>
+        <v>0.001047505963740988</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>2.09323428402126</v>
+        <v>0.4099996666666666</v>
       </c>
       <c r="H8">
-        <v>2.09323428402126</v>
+        <v>1.229999</v>
       </c>
       <c r="I8">
-        <v>0.9471232379753647</v>
+        <v>0.1003356393010777</v>
       </c>
       <c r="J8">
-        <v>0.9471232379753647</v>
+        <v>0.1337121266887557</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N8">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O8">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P8">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q8">
-        <v>10.29902653166958</v>
+        <v>2.275900154673166</v>
       </c>
       <c r="R8">
-        <v>10.29902653166958</v>
+        <v>13.655400928039</v>
       </c>
       <c r="S8">
-        <v>0.4211144710324456</v>
+        <v>0.04603317503161067</v>
       </c>
       <c r="T8">
-        <v>0.4211144710324456</v>
+        <v>0.04926113991085822</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>2.09323428402126</v>
+        <v>0.4099996666666666</v>
       </c>
       <c r="H9">
-        <v>2.09323428402126</v>
+        <v>1.229999</v>
       </c>
       <c r="I9">
-        <v>0.9471232379753647</v>
+        <v>0.1003356393010777</v>
       </c>
       <c r="J9">
-        <v>0.9471232379753647</v>
+        <v>0.1337121266887557</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N9">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O9">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P9">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q9">
-        <v>2.634748015380314</v>
+        <v>0.5441544275976665</v>
       </c>
       <c r="R9">
-        <v>2.634748015380314</v>
+        <v>4.897389848378999</v>
       </c>
       <c r="S9">
-        <v>0.1077315912711606</v>
+        <v>0.01100626315192044</v>
       </c>
       <c r="T9">
-        <v>0.1077315912711606</v>
+        <v>0.0176670760375587</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>2.09323428402126</v>
+        <v>0.4099996666666666</v>
       </c>
       <c r="H10">
-        <v>2.09323428402126</v>
+        <v>1.229999</v>
       </c>
       <c r="I10">
-        <v>0.9471232379753647</v>
+        <v>0.1003356393010777</v>
       </c>
       <c r="J10">
-        <v>0.9471232379753647</v>
+        <v>0.1337121266887557</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N10">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O10">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P10">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q10">
-        <v>0.5136799673127783</v>
+        <v>0.102616356572</v>
       </c>
       <c r="R10">
-        <v>0.5136799673127783</v>
+        <v>0.9235472091479998</v>
       </c>
       <c r="S10">
-        <v>0.02100373924173367</v>
+        <v>0.002075555332902295</v>
       </c>
       <c r="T10">
-        <v>0.02100373924173367</v>
+        <v>0.003331647933581078</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>2.09323428402126</v>
+        <v>0.4099996666666666</v>
       </c>
       <c r="H11">
-        <v>2.09323428402126</v>
+        <v>1.229999</v>
       </c>
       <c r="I11">
-        <v>0.9471232379753647</v>
+        <v>0.1003356393010777</v>
       </c>
       <c r="J11">
-        <v>0.9471232379753647</v>
+        <v>0.1337121266887557</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N11">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O11">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P11">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q11">
-        <v>0.7299655688770561</v>
+        <v>0.1463780809933333</v>
       </c>
       <c r="R11">
-        <v>0.7299655688770561</v>
+        <v>1.31740272894</v>
       </c>
       <c r="S11">
-        <v>0.02984739028143149</v>
+        <v>0.002960695709485134</v>
       </c>
       <c r="T11">
-        <v>0.02984739028143149</v>
+        <v>0.004752460985309154</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>2.09323428402126</v>
+        <v>0.4099996666666666</v>
       </c>
       <c r="H12">
-        <v>2.09323428402126</v>
+        <v>1.229999</v>
       </c>
       <c r="I12">
-        <v>0.9471232379753647</v>
+        <v>0.1003356393010777</v>
       </c>
       <c r="J12">
-        <v>0.9471232379753647</v>
+        <v>0.1337121266887557</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N12">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O12">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P12">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q12">
-        <v>7.724646208188808</v>
+        <v>1.640769192706889</v>
       </c>
       <c r="R12">
-        <v>7.724646208188808</v>
+        <v>14.766922734362</v>
       </c>
       <c r="S12">
-        <v>0.3158512401022893</v>
+        <v>0.03318678777681146</v>
       </c>
       <c r="T12">
-        <v>0.3158512401022893</v>
+        <v>0.05327089630715835</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,805 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.4099996666666666</v>
+      </c>
+      <c r="H13">
+        <v>1.229999</v>
+      </c>
+      <c r="I13">
+        <v>0.1003356393010777</v>
+      </c>
+      <c r="J13">
+        <v>0.1337121266887557</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.611755</v>
+      </c>
+      <c r="N13">
+        <v>1.22351</v>
+      </c>
+      <c r="O13">
+        <v>0.05056191731758031</v>
+      </c>
+      <c r="P13">
+        <v>0.04060144467619692</v>
+      </c>
+      <c r="Q13">
+        <v>0.2508193460816666</v>
+      </c>
+      <c r="R13">
+        <v>1.50491607649</v>
+      </c>
+      <c r="S13">
+        <v>0.005073162298347651</v>
+      </c>
+      <c r="T13">
+        <v>0.005428905514290146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.6162963333333334</v>
+      </c>
+      <c r="H14">
+        <v>1.848889</v>
+      </c>
+      <c r="I14">
+        <v>0.1508208216524812</v>
+      </c>
+      <c r="J14">
+        <v>0.2009911229207884</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>5.5509805</v>
+      </c>
+      <c r="N14">
+        <v>11.101961</v>
+      </c>
+      <c r="O14">
+        <v>0.4587918645086687</v>
+      </c>
+      <c r="P14">
+        <v>0.3684119094562331</v>
+      </c>
+      <c r="Q14">
+        <v>3.421048928554834</v>
+      </c>
+      <c r="R14">
+        <v>20.526293571329</v>
+      </c>
+      <c r="S14">
+        <v>0.06919536597267124</v>
+      </c>
+      <c r="T14">
+        <v>0.0740475233790001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.6162963333333334</v>
+      </c>
+      <c r="H15">
+        <v>1.848889</v>
+      </c>
+      <c r="I15">
+        <v>0.1508208216524812</v>
+      </c>
+      <c r="J15">
+        <v>0.2009911229207884</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.327207</v>
+      </c>
+      <c r="N15">
+        <v>3.981621</v>
+      </c>
+      <c r="O15">
+        <v>0.1096944538210784</v>
+      </c>
+      <c r="P15">
+        <v>0.1321277020646205</v>
+      </c>
+      <c r="Q15">
+        <v>0.8179528076743333</v>
+      </c>
+      <c r="R15">
+        <v>7.361575269069</v>
+      </c>
+      <c r="S15">
+        <v>0.0165442076560152</v>
+      </c>
+      <c r="T15">
+        <v>0.02655649520691144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.6162963333333334</v>
+      </c>
+      <c r="H16">
+        <v>1.848889</v>
+      </c>
+      <c r="I16">
+        <v>0.1508208216524812</v>
+      </c>
+      <c r="J16">
+        <v>0.2009911229207884</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.250284</v>
+      </c>
+      <c r="N16">
+        <v>0.750852</v>
+      </c>
+      <c r="O16">
+        <v>0.02068612257180288</v>
+      </c>
+      <c r="P16">
+        <v>0.02491657276034671</v>
+      </c>
+      <c r="Q16">
+        <v>0.154249111492</v>
+      </c>
+      <c r="R16">
+        <v>1.388242003428</v>
+      </c>
+      <c r="S16">
+        <v>0.003119898003083249</v>
+      </c>
+      <c r="T16">
+        <v>0.005008009938439613</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.6162963333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.848889</v>
+      </c>
+      <c r="I17">
+        <v>0.1508208216524812</v>
+      </c>
+      <c r="J17">
+        <v>0.2009911229207884</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.3570200000000001</v>
+      </c>
+      <c r="N17">
+        <v>1.07106</v>
+      </c>
+      <c r="O17">
+        <v>0.02950791692870925</v>
+      </c>
+      <c r="P17">
+        <v>0.03554248296694548</v>
+      </c>
+      <c r="Q17">
+        <v>0.2200301169266667</v>
+      </c>
+      <c r="R17">
+        <v>1.98027105234</v>
+      </c>
+      <c r="S17">
+        <v>0.004450408276441089</v>
+      </c>
+      <c r="T17">
+        <v>0.007143723562919367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.6162963333333334</v>
+      </c>
+      <c r="H18">
+        <v>1.848889</v>
+      </c>
+      <c r="I18">
+        <v>0.1508208216524812</v>
+      </c>
+      <c r="J18">
+        <v>0.2009911229207884</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.001879333333334</v>
+      </c>
+      <c r="N18">
+        <v>12.005638</v>
+      </c>
+      <c r="O18">
+        <v>0.3307577248521605</v>
+      </c>
+      <c r="P18">
+        <v>0.3983998880756572</v>
+      </c>
+      <c r="Q18">
+        <v>2.466343559575779</v>
+      </c>
+      <c r="R18">
+        <v>22.19709203618201</v>
+      </c>
+      <c r="S18">
+        <v>0.04988515183010815</v>
+      </c>
+      <c r="T18">
+        <v>0.08007484087584275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.6162963333333334</v>
+      </c>
+      <c r="H19">
+        <v>1.848889</v>
+      </c>
+      <c r="I19">
+        <v>0.1508208216524812</v>
+      </c>
+      <c r="J19">
+        <v>0.2009911229207884</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.611755</v>
+      </c>
+      <c r="N19">
+        <v>1.22351</v>
+      </c>
+      <c r="O19">
+        <v>0.05056191731758031</v>
+      </c>
+      <c r="P19">
+        <v>0.04060144467619692</v>
+      </c>
+      <c r="Q19">
+        <v>0.3770223633983334</v>
+      </c>
+      <c r="R19">
+        <v>2.26213418039</v>
+      </c>
+      <c r="S19">
+        <v>0.007625789914162282</v>
+      </c>
+      <c r="T19">
+        <v>0.008160529957675085</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.9413215</v>
+      </c>
+      <c r="H20">
+        <v>5.882643</v>
+      </c>
+      <c r="I20">
+        <v>0.7198039342125597</v>
+      </c>
+      <c r="J20">
+        <v>0.6394970289250005</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.5509805</v>
+      </c>
+      <c r="N20">
+        <v>11.101961</v>
+      </c>
+      <c r="O20">
+        <v>0.4587918645086687</v>
+      </c>
+      <c r="P20">
+        <v>0.3684119094562331</v>
+      </c>
+      <c r="Q20">
+        <v>16.32721829073075</v>
+      </c>
+      <c r="R20">
+        <v>65.30887316292299</v>
+      </c>
+      <c r="S20">
+        <v>0.3302401890580554</v>
+      </c>
+      <c r="T20">
+        <v>0.2355983215178473</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.09323428402126</v>
-      </c>
-      <c r="H13">
-        <v>2.09323428402126</v>
-      </c>
-      <c r="I13">
-        <v>0.9471232379753647</v>
-      </c>
-      <c r="J13">
-        <v>0.9471232379753647</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.602581474159304</v>
-      </c>
-      <c r="N13">
-        <v>0.602581474159304</v>
-      </c>
-      <c r="O13">
-        <v>0.0544541660244277</v>
-      </c>
-      <c r="P13">
-        <v>0.0544541660244277</v>
-      </c>
-      <c r="Q13">
-        <v>1.261344200626326</v>
-      </c>
-      <c r="R13">
-        <v>1.261344200626326</v>
-      </c>
-      <c r="S13">
-        <v>0.05157480604630406</v>
-      </c>
-      <c r="T13">
-        <v>0.05157480604630406</v>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.9413215</v>
+      </c>
+      <c r="H21">
+        <v>5.882643</v>
+      </c>
+      <c r="I21">
+        <v>0.7198039342125597</v>
+      </c>
+      <c r="J21">
+        <v>0.6394970289250005</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.327207</v>
+      </c>
+      <c r="N21">
+        <v>3.981621</v>
+      </c>
+      <c r="O21">
+        <v>0.1096944538210784</v>
+      </c>
+      <c r="P21">
+        <v>0.1321277020646205</v>
+      </c>
+      <c r="Q21">
+        <v>3.9037424840505</v>
+      </c>
+      <c r="R21">
+        <v>23.422454904303</v>
+      </c>
+      <c r="S21">
+        <v>0.07895849942171017</v>
+      </c>
+      <c r="T21">
+        <v>0.08449527290901246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.9413215</v>
+      </c>
+      <c r="H22">
+        <v>5.882643</v>
+      </c>
+      <c r="I22">
+        <v>0.7198039342125597</v>
+      </c>
+      <c r="J22">
+        <v>0.6394970289250005</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.250284</v>
+      </c>
+      <c r="N22">
+        <v>0.750852</v>
+      </c>
+      <c r="O22">
+        <v>0.02068612257180288</v>
+      </c>
+      <c r="P22">
+        <v>0.02491657276034671</v>
+      </c>
+      <c r="Q22">
+        <v>0.736165710306</v>
+      </c>
+      <c r="R22">
+        <v>4.416994261836</v>
+      </c>
+      <c r="S22">
+        <v>0.01488995241078695</v>
+      </c>
+      <c r="T22">
+        <v>0.01593407425123532</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.9413215</v>
+      </c>
+      <c r="H23">
+        <v>5.882643</v>
+      </c>
+      <c r="I23">
+        <v>0.7198039342125597</v>
+      </c>
+      <c r="J23">
+        <v>0.6394970289250005</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.3570200000000001</v>
+      </c>
+      <c r="N23">
+        <v>1.07106</v>
+      </c>
+      <c r="O23">
+        <v>0.02950791692870925</v>
+      </c>
+      <c r="P23">
+        <v>0.03554248296694548</v>
+      </c>
+      <c r="Q23">
+        <v>1.05011060193</v>
+      </c>
+      <c r="R23">
+        <v>6.300663611580001</v>
+      </c>
+      <c r="S23">
+        <v>0.02123991469570231</v>
+      </c>
+      <c r="T23">
+        <v>0.02272931225797907</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.9413215</v>
+      </c>
+      <c r="H24">
+        <v>5.882643</v>
+      </c>
+      <c r="I24">
+        <v>0.7198039342125597</v>
+      </c>
+      <c r="J24">
+        <v>0.6394970289250005</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>4.001879333333334</v>
+      </c>
+      <c r="N24">
+        <v>12.005638</v>
+      </c>
+      <c r="O24">
+        <v>0.3307577248521605</v>
+      </c>
+      <c r="P24">
+        <v>0.3983998880756572</v>
+      </c>
+      <c r="Q24">
+        <v>11.770813723539</v>
+      </c>
+      <c r="R24">
+        <v>70.624882341234</v>
+      </c>
+      <c r="S24">
+        <v>0.2380807116197804</v>
+      </c>
+      <c r="T24">
+        <v>0.2547755447484356</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.9413215</v>
+      </c>
+      <c r="H25">
+        <v>5.882643</v>
+      </c>
+      <c r="I25">
+        <v>0.7198039342125597</v>
+      </c>
+      <c r="J25">
+        <v>0.6394970289250005</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.611755</v>
+      </c>
+      <c r="N25">
+        <v>1.22351</v>
+      </c>
+      <c r="O25">
+        <v>0.05056191731758031</v>
+      </c>
+      <c r="P25">
+        <v>0.04060144467619692</v>
+      </c>
+      <c r="Q25">
+        <v>1.7993681342325</v>
+      </c>
+      <c r="R25">
+        <v>7.19747253693</v>
+      </c>
+      <c r="S25">
+        <v>0.03639466700652447</v>
+      </c>
+      <c r="T25">
+        <v>0.02596450324049071</v>
       </c>
     </row>
   </sheetData>
